--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TejaVardhan\Radhamma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE582CC5-BD44-4BDD-96B7-FC986401EB69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1039F6C-5A82-42E5-A747-94D5AB1717C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{CE0A0107-1C62-4B53-AA7B-DDDE2D53AB03}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CE0A0107-1C62-4B53-AA7B-DDDE2D53AB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>What I have learnt?</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>SQL, Figma</t>
+  </si>
+  <si>
+    <t>GCP</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC17B25-F721-4F12-9A20-F7EFC9A09E5F}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,6 +471,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TejaVardhan\Radhamma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Repos\Radhamma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1039F6C-5A82-42E5-A747-94D5AB1717C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F21AC1-C60A-4E1A-B505-73FFE0672D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CE0A0107-1C62-4B53-AA7B-DDDE2D53AB03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>What I have learnt?</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>GCP</t>
+  </si>
+  <si>
+    <t>Gen AI</t>
+  </si>
+  <si>
+    <t>Flask</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC17B25-F721-4F12-9A20-F7EFC9A09E5F}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,12 +474,22 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
